--- a/syllabus/demog180 - 2024.xlsx
+++ b/syllabus/demog180 - 2024.xlsx
@@ -402,7 +402,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
